--- a/y-Manipulated Tables/DataSet/Tables/LOCATION.xlsx
+++ b/y-Manipulated Tables/DataSet/Tables/LOCATION.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BDSM\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Final Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BDSM\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AB0FA4-8704-4466-9843-A8CC5A107343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A3E497-BF7B-4BFB-BFC2-07FC4B28D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5160" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>UK</t>
   </si>
   <si>
-    <t>Ukaraine</t>
-  </si>
-  <si>
     <t>cor1</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>cor47</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,15 +687,15 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE("cnt",LEFT(E13,3))</f>
-        <v>cntUka</v>
+        <v>cntUkr</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>41.965192999999999</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>42.060285</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>41.801180000000002</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>41.832120000000003</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>41.782766000000002</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>42.139995999999996</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>42.022500000000001</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>41.965485000000001</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>41.864426000000002</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>41.902524999999997</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>41.670991999999998</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>41.767763000000002</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>41.837325999999997</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>41.814712</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>41.858649</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>41.912739000000002</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>41.834071999999999</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>41.980271999999999</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>41.980277000000001</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>41.98028</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>41.751399999999997</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>41.817571999999998</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>41.849535000000003</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>41.914445000000001</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>41.853763000000001</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>41.996000000000002</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>41.892698000000003</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>41.892265000000002</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>41.831384999999997</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>41.829172999999997</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>41.808369999999996</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>41.8232</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>41.824975999999999</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>41.911945000000003</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>41.903514000000001</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>41.903599999999997</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>41.860999999999997</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>41.923524</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>41.919744999999999</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>41.991683000000002</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>41.829360999999999</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>41.935698000000002</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>41.861204999999998</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>41.868892000000002</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>41.578620000000001</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>41.720170000000003</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>41.687165</v>
